--- a/Sprint1/Team_Parth_Sanket_Vedadnya_Pranav.xlsx
+++ b/Sprint1/Team_Parth_Sanket_Vedadnya_Pranav.xlsx
@@ -5,12 +5,12 @@
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vedadnya_98/Documents/GitHub/CS-555-Agile_Project_Team/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanketpatidar/Desktop/CS 555/Agile Github/CS-555-Agile_Project_Team/Sprint1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{35141C62-B588-3745-B225-304548CE53D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B833FB-F7EC-F64B-9937-AE302D711D88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="460" windowWidth="28800" windowHeight="15800" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15800" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="241">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2202,7 +2202,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2333,8 +2333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2545,10 +2545,10 @@
         <v>162</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="D13" s="29" t="s">
         <v>185</v>
@@ -2562,10 +2562,10 @@
         <v>162</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>168</v>
+        <v>102</v>
       </c>
       <c r="D14" s="29" t="s">
         <v>185</v>
@@ -3134,7 +3134,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -3210,8 +3210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView zoomScale="116" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3397,7 +3397,7 @@
         <v>15</v>
       </c>
       <c r="H4">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>206</v>
@@ -3444,7 +3444,7 @@
         <v>25</v>
       </c>
       <c r="H5">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>206</v>
@@ -3684,15 +3684,18 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="25.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -3719,6 +3722,184 @@
       </c>
       <c r="I1" s="10" t="s">
         <v>17</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="O1" s="16" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A2" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="E2">
+        <v>60</v>
+      </c>
+      <c r="F2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="E3">
+        <v>60</v>
+      </c>
+      <c r="F3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A4" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="E4">
+        <v>60</v>
+      </c>
+      <c r="F4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A5" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="E5">
+        <v>60</v>
+      </c>
+      <c r="F5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A6" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="E6">
+        <v>60</v>
+      </c>
+      <c r="F6">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A7" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="E7">
+        <v>60</v>
+      </c>
+      <c r="F7">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A8" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="E8">
+        <v>60</v>
+      </c>
+      <c r="F8">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A9" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="E9">
+        <v>60</v>
+      </c>
+      <c r="F9">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -3822,8 +4003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A32" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36:B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
